--- a/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096F3B9-DEEC-F140-924A-053A3B24998A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03EAA0F-7961-9742-A8FA-489063C1611D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="86">
   <si>
     <t>DOI</t>
   </si>
@@ -203,13 +203,88 @@
   </si>
   <si>
     <t>HLA-E expression (RFI)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Bioluminescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Protein concentration</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Cell viability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +305,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,7 +322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -273,19 +356,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,15 +686,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="158" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="316" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +713,23 @@
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -629,8 +745,23 @@
       <c r="E2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -646,8 +777,23 @@
       <c r="E3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -663,8 +809,23 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -680,8 +841,23 @@
       <c r="E5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -697,8 +873,23 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -714,8 +905,23 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -731,8 +937,23 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -748,8 +969,23 @@
       <c r="E9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -765,8 +1001,23 @@
       <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -782,8 +1033,23 @@
       <c r="E11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -799,8 +1065,23 @@
       <c r="E12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -816,8 +1097,23 @@
       <c r="E13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -833,8 +1129,23 @@
       <c r="E14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -850,8 +1161,23 @@
       <c r="E15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -867,8 +1193,23 @@
       <c r="E16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -884,8 +1225,23 @@
       <c r="E17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -901,8 +1257,23 @@
       <c r="E18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -918,8 +1289,23 @@
       <c r="E19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -935,8 +1321,23 @@
       <c r="E20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -952,8 +1353,23 @@
       <c r="E21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -969,8 +1385,23 @@
       <c r="E22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -986,8 +1417,23 @@
       <c r="E23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1003,8 +1449,23 @@
       <c r="E24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1020,8 +1481,23 @@
       <c r="E25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1037,8 +1513,23 @@
       <c r="E26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1054,8 +1545,23 @@
       <c r="E27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1071,8 +1577,23 @@
       <c r="E28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1088,8 +1609,23 @@
       <c r="E29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1105,8 +1641,23 @@
       <c r="E30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1122,8 +1673,23 @@
       <c r="E31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1139,8 +1705,23 @@
       <c r="E32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1156,8 +1737,23 @@
       <c r="E33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1173,8 +1769,23 @@
       <c r="E34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1190,8 +1801,23 @@
       <c r="E35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1207,8 +1833,23 @@
       <c r="E36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1223,6 +1864,21 @@
       </c>
       <c r="E37" t="s">
         <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03EAA0F-7961-9742-A8FA-489063C1611D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE8AD40-F866-BF41-BFF8-65EFF11CD8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="123">
   <si>
     <t>DOI</t>
   </si>
@@ -278,6 +278,117 @@
   </si>
   <si>
     <t>Cell viability</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abi6887_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abi6887_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abl8881_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abl9041_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn0484_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn0484_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abn7993_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo2003_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo2003_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo2003_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo2003_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo2003_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo2003_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abo5558_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abp9547_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abp9547_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abp9547_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abp9547_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abp9547_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abq0178_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abq4573_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.abq4573_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adc9081_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adc9417_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adc9417_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adc9417_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add1599_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.add4817_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade2860_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.ade5019_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adf2248_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adf2248_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adf2248_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adg8249_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adh3455_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:sciimmunol.adi3974_zero_fig1</t>
   </si>
 </sst>
 </file>
@@ -686,230 +797,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="316" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:J34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="316" workbookViewId="0">
+      <selection activeCell="A21" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
       <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>68</v>
       </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
         <v>70</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>67</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>68</v>
       </c>
-      <c r="J3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
       <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
-      </c>
-      <c r="H4" t="s">
-        <v>72</v>
       </c>
       <c r="I4" t="s">
         <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
       <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
         <v>70</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>81</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
       <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
         <v>77</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>78</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
         <v>73</v>
@@ -918,254 +1047,278 @@
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
       <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
         <v>70</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>79</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>80</v>
       </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>74</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>75</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>76</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>74</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>71</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>76</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>74</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>71</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>75</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>76</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>75</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>76</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>74</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>71</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>75</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>76</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>74</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>71</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>75</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>76</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
         <v>77</v>
@@ -1174,62 +1327,68 @@
         <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
       <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
         <v>70</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>67</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>68</v>
       </c>
-      <c r="J16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
         <v>73</v>
@@ -1238,62 +1397,68 @@
         <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>45</v>
       </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
       <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
         <v>70</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>67</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>68</v>
       </c>
-      <c r="J18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
         <v>73</v>
@@ -1302,30 +1467,33 @@
         <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>46</v>
       </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
         <v>73</v>
@@ -1334,254 +1502,278 @@
         <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>47</v>
       </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
       <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
         <v>77</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>78</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>77</v>
       </c>
-      <c r="J21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
       <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
         <v>77</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>78</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>77</v>
       </c>
-      <c r="J22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
       <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
         <v>77</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>78</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>77</v>
       </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="K23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>50</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>74</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>71</v>
-      </c>
-      <c r="H24" t="s">
-        <v>82</v>
       </c>
       <c r="I24" t="s">
         <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>51</v>
       </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
       <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
         <v>71</v>
-      </c>
-      <c r="H25" t="s">
-        <v>72</v>
       </c>
       <c r="I25" t="s">
         <v>72</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
       </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
       <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
         <v>71</v>
-      </c>
-      <c r="H26" t="s">
-        <v>72</v>
       </c>
       <c r="I26" t="s">
         <v>72</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
       </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
       <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
         <v>71</v>
-      </c>
-      <c r="H27" t="s">
-        <v>72</v>
       </c>
       <c r="I27" t="s">
         <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>52</v>
       </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
         <v>73</v>
@@ -1590,30 +1782,33 @@
         <v>73</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
       </c>
-      <c r="F29" t="s">
-        <v>66</v>
-      </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H29" t="s">
         <v>77</v>
@@ -1622,262 +1817,289 @@
         <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>54</v>
       </c>
-      <c r="F30" t="s">
-        <v>66</v>
-      </c>
       <c r="G30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" t="s">
         <v>77</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>85</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>77</v>
       </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="K30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>74</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>71</v>
-      </c>
-      <c r="H31" t="s">
-        <v>76</v>
       </c>
       <c r="I31" t="s">
         <v>76</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>56</v>
       </c>
-      <c r="F32" t="s">
-        <v>66</v>
-      </c>
       <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
         <v>77</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>78</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>77</v>
       </c>
-      <c r="J32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="K32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>57</v>
       </c>
-      <c r="F33" t="s">
-        <v>66</v>
-      </c>
       <c r="G33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
         <v>77</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>78</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>77</v>
       </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" t="s">
-        <v>66</v>
-      </c>
       <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
         <v>77</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>78</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>77</v>
       </c>
-      <c r="J34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>58</v>
       </c>
-      <c r="F35" t="s">
-        <v>66</v>
-      </c>
       <c r="G35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" t="s">
         <v>70</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>81</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>80</v>
       </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="K35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>59</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>74</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>71</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>83</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>84</v>
       </c>
-      <c r="J36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>60</v>
       </c>
-      <c r="F37" t="s">
-        <v>66</v>
-      </c>
       <c r="G37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" t="s">
         <v>70</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>81</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>80</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>69</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE8AD40-F866-BF41-BFF8-65EFF11CD8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E486FE-EF47-2A4F-A68F-6E3B2A7735C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -799,13 +799,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="316" workbookViewId="0">
-      <selection activeCell="A21" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="316" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">

--- a/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E486FE-EF47-2A4F-A68F-6E3B2A7735C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A401AAC-4D7B-2547-B58E-274FB80C45F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="316" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="I23" zoomScale="316" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -976,10 +976,10 @@
         <v>70</v>
       </c>
       <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
         <v>81</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
       </c>
       <c r="K5" t="s">
         <v>69</v>
@@ -1081,10 +1081,10 @@
         <v>70</v>
       </c>
       <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
         <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>80</v>
       </c>
       <c r="K8" t="s">
         <v>69</v>
@@ -2026,10 +2026,10 @@
         <v>70</v>
       </c>
       <c r="I35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s">
         <v>81</v>
-      </c>
-      <c r="J35" t="s">
-        <v>80</v>
       </c>
       <c r="K35" t="s">
         <v>69</v>
@@ -2096,10 +2096,10 @@
         <v>70</v>
       </c>
       <c r="I37" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" t="s">
         <v>81</v>
-      </c>
-      <c r="J37" t="s">
-        <v>80</v>
       </c>
       <c r="K37" t="s">
         <v>69</v>

--- a/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A401AAC-4D7B-2547-B58E-274FB80C45F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0B85F3-5807-E647-8BB0-74B33A065122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="122">
   <si>
     <t>DOI</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>Mass</t>
-  </si>
-  <si>
-    <t>Protein concentration</t>
   </si>
   <si>
     <t>Concentration</t>
@@ -799,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I23" zoomScale="316" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37:J37"/>
+    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="214" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -812,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -847,7 +844,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -882,7 +879,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -917,7 +914,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -952,7 +949,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -987,7 +984,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1022,7 +1019,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1057,7 +1054,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1092,7 +1089,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1127,7 +1124,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1162,7 +1159,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1197,7 +1194,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1232,7 +1229,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1267,7 +1264,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1302,7 +1299,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1337,7 +1334,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1372,7 +1369,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1407,7 +1404,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1442,7 +1439,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1477,7 +1474,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1512,7 +1509,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1547,7 +1544,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1582,7 +1579,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1617,7 +1614,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1652,7 +1649,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -1722,7 +1719,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1757,7 +1754,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -1792,7 +1789,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -1827,7 +1824,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -1851,7 +1848,7 @@
         <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s">
         <v>77</v>
@@ -1862,7 +1859,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -1897,7 +1894,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -1932,7 +1929,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
@@ -1967,7 +1964,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
@@ -2002,7 +1999,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -2037,7 +2034,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -2064,7 +2061,7 @@
         <v>83</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s">
         <v>69</v>
@@ -2072,7 +2069,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>

--- a/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_immunol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_immunol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0B85F3-5807-E647-8BB0-74B33A065122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A163D27B-660B-114C-9D36-5364C236CE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>10.1126:sciimmunol.adi3974</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Cell division index</t>
   </si>
   <si>
@@ -211,12 +208,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -386,6 +377,15 @@
   </si>
   <si>
     <t>10.1126:sciimmunol.adi3974_zero_fig1</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
+  </si>
+  <si>
+    <t>Measurand</t>
   </si>
 </sst>
 </file>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="214" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="214" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -809,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -824,27 +824,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -859,27 +859,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -894,27 +894,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -929,27 +929,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -964,27 +964,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -999,27 +999,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1034,27 +1034,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1069,27 +1069,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1104,19 +1104,19 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1139,19 +1139,19 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1174,19 +1174,19 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1209,19 +1209,19 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1244,19 +1244,19 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K13">
         <v>10</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1279,19 +1279,19 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1314,27 +1314,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1349,27 +1349,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1384,27 +1384,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1419,27 +1419,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1454,27 +1454,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1489,27 +1489,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1524,27 +1524,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1559,27 +1559,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1594,27 +1594,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1629,27 +1629,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1664,27 +1664,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -1699,27 +1699,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1734,27 +1734,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -1769,27 +1769,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -1804,27 +1804,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -1839,27 +1839,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -1874,19 +1874,19 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -1909,27 +1909,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
@@ -1944,27 +1944,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
@@ -1979,27 +1979,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -2014,27 +2014,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -2049,27 +2049,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
@@ -2084,22 +2084,22 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
